--- a/data/washington/da_sampling/tables/TableSX_wa_rec_closure_file_key.xlsx
+++ b/data/washington/da_sampling/tables/TableSX_wa_rec_closure_file_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/da_sampling/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62626102-B27E-F743-9A2E-65E628EDFF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFD2FE-4E32-F14E-A4C7-2124800F23F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16040" yWindow="4840" windowWidth="28040" windowHeight="17440" xr2:uid="{7D87AE43-3AC6-6F4B-A4D6-BDC5D584B226}"/>
   </bookViews>
@@ -28,15 +28,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Sheet</t>
+    <t>Rec Closure log 2002-2011.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2012.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2013.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2015.xlsx</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2016.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2017.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2019.xlsx</t>
+  </si>
+  <si>
+    <t>Rec Closure log 2020.xlsx</t>
+  </si>
+  <si>
+    <t>Number of rows</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Sheet name</t>
   </si>
 </sst>
 </file>
@@ -91,22 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,155 +444,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB190A92-0A2B-EA4B-BAB5-0CC1111E29DA}">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2002</v>
+      </c>
+      <c r="D3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2003</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2004</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2005</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2006</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2007</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2008</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2009</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2011</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="C13">
         <v>2012</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="D13">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2013</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2013</v>
+      </c>
+      <c r="D14">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15">
         <v>2014</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>2015</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2016</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2018</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2020</v>
       </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A4:C13">
